--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1752,28 +1752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.8915187096754</v>
+        <v>246.325093278059</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.3449768534726</v>
+        <v>337.0328597190367</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.0706492380682</v>
+        <v>304.8669166161417</v>
       </c>
       <c r="AD2" t="n">
-        <v>185891.5187096754</v>
+        <v>246325.093278059</v>
       </c>
       <c r="AE2" t="n">
-        <v>254344.9768534726</v>
+        <v>337032.8597190367</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.205725860864752e-06</v>
+        <v>3.179916481130643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>230070.6492380682</v>
+        <v>304866.9166161417</v>
       </c>
     </row>
     <row r="3">
@@ -1858,28 +1858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.7611030427585</v>
+        <v>188.9280315287265</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.4367717090359</v>
+        <v>258.4996676539873</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.4028061284492</v>
+        <v>233.8288221797283</v>
       </c>
       <c r="AD3" t="n">
-        <v>145761.1030427585</v>
+        <v>188928.0315287265</v>
       </c>
       <c r="AE3" t="n">
-        <v>199436.7717090359</v>
+        <v>258499.6676539873</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.733734122400674e-06</v>
+        <v>3.941127202200468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>180402.8061284492</v>
+        <v>233828.8221797283</v>
       </c>
     </row>
     <row r="4">
@@ -1964,28 +1964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.0283814714297</v>
+        <v>186.7432473897584</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.751788560893</v>
+        <v>255.5103496091789</v>
       </c>
       <c r="AC4" t="n">
-        <v>167.1193371614571</v>
+        <v>231.1248004535813</v>
       </c>
       <c r="AD4" t="n">
-        <v>135028.3814714297</v>
+        <v>186743.2473897584</v>
       </c>
       <c r="AE4" t="n">
-        <v>184751.788560893</v>
+        <v>255510.349609179</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.783824999428926e-06</v>
+        <v>4.013341437089104e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>167119.3371614571</v>
+        <v>231124.8004535813</v>
       </c>
     </row>
   </sheetData>
@@ -2261,28 +2261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.8074459622332</v>
+        <v>208.2267359462301</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.9191095385949</v>
+        <v>284.9050064367527</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.3120927686667</v>
+        <v>257.7140724892007</v>
       </c>
       <c r="AD2" t="n">
-        <v>157807.4459622332</v>
+        <v>208226.7359462301</v>
       </c>
       <c r="AE2" t="n">
-        <v>215919.1095385948</v>
+        <v>284905.0064367527</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.564161291678703e-06</v>
+        <v>3.753835669954854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>195312.0927686667</v>
+        <v>257714.0724892007</v>
       </c>
     </row>
     <row r="3">
@@ -2367,28 +2367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.647379705146</v>
+        <v>179.0665801805918</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.0210204343381</v>
+        <v>245.0067948629475</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.2218212911878</v>
+        <v>221.6236902304952</v>
       </c>
       <c r="AD3" t="n">
-        <v>128647.379705146</v>
+        <v>179066.5801805918</v>
       </c>
       <c r="AE3" t="n">
-        <v>176021.0204343381</v>
+        <v>245006.7948629475</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.917906987428788e-06</v>
+        <v>4.271706060990324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>159221.8212911877</v>
+        <v>221623.6902304952</v>
       </c>
     </row>
   </sheetData>
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.6940797679611</v>
+        <v>161.5306129477109</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.8754528192288</v>
+        <v>221.0133108626577</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.853655216886</v>
+        <v>199.9201106681191</v>
       </c>
       <c r="AD2" t="n">
-        <v>122694.0797679611</v>
+        <v>161530.6129477109</v>
       </c>
       <c r="AE2" t="n">
-        <v>167875.4528192288</v>
+        <v>221013.3108626577</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.133310327076462e-06</v>
+        <v>4.847617829614794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>151853.655216886</v>
+        <v>199920.1106681191</v>
       </c>
     </row>
   </sheetData>
@@ -2961,28 +2961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.4591807763008</v>
+        <v>167.502632992196</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.4493213051701</v>
+        <v>229.184492154448</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.849947482413</v>
+        <v>207.3114458857485</v>
       </c>
       <c r="AD2" t="n">
-        <v>119459.1807763008</v>
+        <v>167502.632992196</v>
       </c>
       <c r="AE2" t="n">
-        <v>163449.3213051701</v>
+        <v>229184.492154448</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.092962827361488e-06</v>
+        <v>4.67437606559878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>147849.947482413</v>
+        <v>207311.4458857485</v>
       </c>
     </row>
   </sheetData>
@@ -3258,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.1936168687737</v>
+        <v>164.54648669162</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.085965051039</v>
+        <v>225.1397623700314</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.5212694392024</v>
+        <v>203.6527394351415</v>
       </c>
       <c r="AD2" t="n">
-        <v>119193.6168687737</v>
+        <v>164546.48669162</v>
       </c>
       <c r="AE2" t="n">
-        <v>163085.965051039</v>
+        <v>225139.7623700314</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.099149597690286e-06</v>
+        <v>4.898168719424384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.7578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>147521.2694392024</v>
+        <v>203652.7394351415</v>
       </c>
     </row>
   </sheetData>
@@ -3555,28 +3555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.5900598126592</v>
+        <v>221.8239975251691</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.4628928027762</v>
+        <v>303.5093795978918</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.2313465423742</v>
+        <v>274.5428703872484</v>
       </c>
       <c r="AD2" t="n">
-        <v>162590.0598126592</v>
+        <v>221823.997525169</v>
       </c>
       <c r="AE2" t="n">
-        <v>222462.8928027762</v>
+        <v>303509.3795978918</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.461968637169564e-06</v>
+        <v>3.589270319852208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>201231.3465423742</v>
+        <v>274542.8703872484</v>
       </c>
     </row>
     <row r="3">
@@ -3661,28 +3661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.3679967464221</v>
+        <v>181.1277518064917</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.3752445784773</v>
+        <v>247.8269808139767</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.3513615871854</v>
+        <v>224.1747215925149</v>
       </c>
       <c r="AD3" t="n">
-        <v>130367.9967464221</v>
+        <v>181127.7518064917</v>
       </c>
       <c r="AE3" t="n">
-        <v>178375.2445784773</v>
+        <v>247826.9808139767</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.877888283398756e-06</v>
+        <v>4.195633869377413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>161351.3615871854</v>
+        <v>224174.721592515</v>
       </c>
     </row>
     <row r="4">
@@ -3767,28 +3767,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.5291035647856</v>
+        <v>181.2888586248553</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.5956780348934</v>
+        <v>248.0474142703929</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.5507571839016</v>
+        <v>224.3741171892311</v>
       </c>
       <c r="AD4" t="n">
-        <v>130529.1035647856</v>
+        <v>181288.8586248553</v>
       </c>
       <c r="AE4" t="n">
-        <v>178595.6780348934</v>
+        <v>248047.4142703929</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.877290044450725e-06</v>
+        <v>4.194761705017587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>161550.7571839016</v>
+        <v>224374.1171892311</v>
       </c>
     </row>
   </sheetData>
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.3472007972121</v>
+        <v>169.8741213374537</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.5055700588872</v>
+        <v>232.4292671311098</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.1373191620941</v>
+        <v>210.2465440927091</v>
       </c>
       <c r="AD2" t="n">
-        <v>125347.2007972121</v>
+        <v>169874.1213374537</v>
       </c>
       <c r="AE2" t="n">
-        <v>171505.5700588872</v>
+        <v>232429.2671311098</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.019804070516285e-06</v>
+        <v>4.838435465931183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>155137.3191620941</v>
+        <v>210246.5440927091</v>
       </c>
     </row>
   </sheetData>
@@ -4361,28 +4361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.4175262520087</v>
+        <v>185.6462109832532</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.6524777344226</v>
+        <v>254.0093359999689</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.8386272278997</v>
+        <v>229.7670414765479</v>
       </c>
       <c r="AD2" t="n">
-        <v>136417.5262520087</v>
+        <v>185646.2109832532</v>
       </c>
       <c r="AE2" t="n">
-        <v>186652.4777344226</v>
+        <v>254009.3359999689</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86929359981347e-06</v>
+        <v>4.260451082250166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.2890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>168838.6272278997</v>
+        <v>229767.0414765479</v>
       </c>
     </row>
     <row r="3">
@@ -4467,28 +4467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.1774887047409</v>
+        <v>173.491424782006</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.9051183699133</v>
+        <v>237.3786212881088</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.6896123360673</v>
+        <v>214.7235388354278</v>
       </c>
       <c r="AD3" t="n">
-        <v>124177.4887047409</v>
+        <v>173491.424782006</v>
       </c>
       <c r="AE3" t="n">
-        <v>169905.1183699133</v>
+        <v>237378.6212881088</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.012120150380342e-06</v>
+        <v>4.472526114228854e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>153689.6123360673</v>
+        <v>214723.5388354278</v>
       </c>
     </row>
   </sheetData>
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.0427221676519</v>
+        <v>203.3815833100348</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.4538513029881</v>
+        <v>278.2756548468652</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.5136942664168</v>
+        <v>251.7174169106966</v>
       </c>
       <c r="AD2" t="n">
-        <v>145042.7221676519</v>
+        <v>203381.5833100348</v>
       </c>
       <c r="AE2" t="n">
-        <v>198453.8513029881</v>
+        <v>278275.6548468652</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.658938473811564e-06</v>
+        <v>3.909816081317663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.94010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179513.6942664168</v>
+        <v>251717.4169106966</v>
       </c>
     </row>
     <row r="3">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.5534144429779</v>
+        <v>177.6191103182857</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.5242089002992</v>
+        <v>243.0263027394779</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.8678633491689</v>
+        <v>219.8322134956507</v>
       </c>
       <c r="AD3" t="n">
-        <v>127553.4144429779</v>
+        <v>177619.1103182858</v>
       </c>
       <c r="AE3" t="n">
-        <v>174524.2089002992</v>
+        <v>243026.3027394779</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.93370268093108e-06</v>
+        <v>4.313841043213986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>157867.8633491689</v>
+        <v>219832.2134956507</v>
       </c>
     </row>
   </sheetData>
@@ -5167,28 +5167,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.2974796278299</v>
+        <v>240.2008538855411</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.6909657901088</v>
+        <v>328.6534051998245</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.1471262481175</v>
+        <v>297.2871854756022</v>
       </c>
       <c r="AD2" t="n">
-        <v>180297.4796278299</v>
+        <v>240200.8538855411</v>
       </c>
       <c r="AE2" t="n">
-        <v>246690.9657901088</v>
+        <v>328653.4051998245</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.295119221349369e-06</v>
+        <v>3.320515388967666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>223147.1262481175</v>
+        <v>297287.1854756022</v>
       </c>
     </row>
     <row r="3">
@@ -5273,28 +5273,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.4047715000841</v>
+        <v>186.3148370502805</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.2127349383395</v>
+        <v>254.9241796825754</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.486466902183</v>
+        <v>230.5945737620779</v>
       </c>
       <c r="AD3" t="n">
-        <v>143404.7715000841</v>
+        <v>186314.8370502805</v>
       </c>
       <c r="AE3" t="n">
-        <v>196212.7349383395</v>
+        <v>254924.1796825754</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779445185710266e-06</v>
+        <v>4.021224878469239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>177486.466902183</v>
+        <v>230594.573762078</v>
       </c>
     </row>
     <row r="4">
@@ -5379,28 +5379,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.6249771303357</v>
+        <v>185.0316075257384</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.8315888275792</v>
+        <v>253.1684084350066</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.3823985956729</v>
+        <v>229.0063708581362</v>
       </c>
       <c r="AD4" t="n">
-        <v>133624.9771303356</v>
+        <v>185031.6075257384</v>
       </c>
       <c r="AE4" t="n">
-        <v>182831.5888275792</v>
+        <v>253168.4084350066</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.808572975065563e-06</v>
+        <v>4.063366163288424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>165382.3985956729</v>
+        <v>229006.3708581362</v>
       </c>
     </row>
   </sheetData>
@@ -5676,28 +5676,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.8393165846589</v>
+        <v>170.3288311292802</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.7059281223451</v>
+        <v>233.0514211286668</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.7957483156342</v>
+        <v>210.8093205859379</v>
       </c>
       <c r="AD2" t="n">
-        <v>121839.3165846589</v>
+        <v>170328.8311292802</v>
       </c>
       <c r="AE2" t="n">
-        <v>166705.9281223451</v>
+        <v>233051.4211286668</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.035137344922362e-06</v>
+        <v>4.55781905235238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>150795.7483156342</v>
+        <v>210809.3205859379</v>
       </c>
     </row>
     <row r="3">
@@ -5782,28 +5782,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.1331819930844</v>
+        <v>169.6226965377057</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.7397636216938</v>
+        <v>232.0852566280155</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.9217931989044</v>
+        <v>209.9353654692081</v>
       </c>
       <c r="AD3" t="n">
-        <v>121133.1819930844</v>
+        <v>169622.6965377057</v>
       </c>
       <c r="AE3" t="n">
-        <v>165739.7636216938</v>
+        <v>232085.2566280155</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.066623703604937e-06</v>
+        <v>4.605101632737985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>149921.7931989044</v>
+        <v>209935.3654692081</v>
       </c>
     </row>
   </sheetData>
@@ -6079,28 +6079,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.3411166971746</v>
+        <v>163.6321661661273</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.1290014079186</v>
+        <v>223.8887486900782</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.8921282911473</v>
+        <v>202.5211207449938</v>
       </c>
       <c r="AD2" t="n">
-        <v>124341.1166971746</v>
+        <v>163632.1661661273</v>
       </c>
       <c r="AE2" t="n">
-        <v>170129.0014079186</v>
+        <v>223888.7486900782</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.13008134807886e-06</v>
+        <v>4.800752091351285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.02864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>153892.1282911473</v>
+        <v>202521.1207449938</v>
       </c>
     </row>
   </sheetData>
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.070224737822</v>
+        <v>166.9091930777776</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.6536227275656</v>
+        <v>228.3725214828198</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.8438734708123</v>
+        <v>206.5769685554123</v>
       </c>
       <c r="AD2" t="n">
-        <v>121070.224737822</v>
+        <v>166909.1930777776</v>
       </c>
       <c r="AE2" t="n">
-        <v>165653.6227275656</v>
+        <v>228372.5214828198</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.119655697139963e-06</v>
+        <v>4.874400490432173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.4453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>149843.8734708123</v>
+        <v>206576.9685554123</v>
       </c>
     </row>
   </sheetData>
@@ -10262,28 +10262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.1086118915287</v>
+        <v>181.9803128050887</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.3885868936458</v>
+        <v>248.9934923845932</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.2679919340295</v>
+        <v>225.2299029360414</v>
       </c>
       <c r="AD2" t="n">
-        <v>131108.6118915286</v>
+        <v>181980.3128050886</v>
       </c>
       <c r="AE2" t="n">
-        <v>179388.5868936458</v>
+        <v>248993.4923845932</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.873704259035487e-06</v>
+        <v>4.683207244525381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>162267.9919340294</v>
+        <v>225229.9029360414</v>
       </c>
     </row>
   </sheetData>
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.4984256697741</v>
+        <v>190.2815995051006</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.2361443543824</v>
+        <v>260.351679074466</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.8893965423776</v>
+        <v>235.5040802295515</v>
       </c>
       <c r="AD2" t="n">
-        <v>140498.4256697741</v>
+        <v>190281.5995051006</v>
       </c>
       <c r="AE2" t="n">
-        <v>192236.1443543824</v>
+        <v>260351.679074466</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.767661076080504e-06</v>
+        <v>4.08888934790626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>173889.3965423776</v>
+        <v>235504.0802295515</v>
       </c>
     </row>
     <row r="3">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.719503777087</v>
+        <v>175.4173367578419</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.0149714208</v>
+        <v>240.013739018686</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.5981039729755</v>
+        <v>217.1071646282105</v>
       </c>
       <c r="AD3" t="n">
-        <v>125719.503777087</v>
+        <v>175417.3367578419</v>
       </c>
       <c r="AE3" t="n">
-        <v>172014.9714208</v>
+        <v>240013.739018686</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.980321359263804e-06</v>
+        <v>4.403069568217901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>155598.1039729755</v>
+        <v>217107.1646282105</v>
       </c>
     </row>
   </sheetData>
@@ -10962,28 +10962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.7579360029684</v>
+        <v>226.3754750333426</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.1655648800749</v>
+        <v>309.7369119215878</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.3897636003678</v>
+        <v>280.1760557663694</v>
       </c>
       <c r="AD2" t="n">
-        <v>166757.9360029685</v>
+        <v>226375.4750333425</v>
       </c>
       <c r="AE2" t="n">
-        <v>228165.5648800749</v>
+        <v>309736.9119215878</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.384645573283027e-06</v>
+        <v>3.462908414778024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>206389.7636003678</v>
+        <v>280176.0557663694</v>
       </c>
     </row>
     <row r="3">
@@ -11068,28 +11068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.8614234320649</v>
+        <v>182.9499796217324</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.4186168551082</v>
+        <v>250.3202333018054</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.1997172816263</v>
+        <v>226.4300215622078</v>
       </c>
       <c r="AD3" t="n">
-        <v>131861.4234320649</v>
+        <v>182949.9796217324</v>
       </c>
       <c r="AE3" t="n">
-        <v>180418.6168551082</v>
+        <v>250320.2333018054</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.845812592782701e-06</v>
+        <v>4.132600871525339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>163199.7172816263</v>
+        <v>226430.0215622078</v>
       </c>
     </row>
     <row r="4">
@@ -11174,28 +11174,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.1709497229565</v>
+        <v>183.259505912624</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.842124381642</v>
+        <v>250.7437408283392</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.5828058442244</v>
+        <v>226.8131101248059</v>
       </c>
       <c r="AD4" t="n">
-        <v>132170.9497229565</v>
+        <v>183259.505912624</v>
       </c>
       <c r="AE4" t="n">
-        <v>180842.124381642</v>
+        <v>250743.7408283392</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.844294269347958e-06</v>
+        <v>4.130396009277702e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>163582.8058442244</v>
+        <v>226813.1101248059</v>
       </c>
     </row>
   </sheetData>
@@ -11471,28 +11471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.960981074398</v>
+        <v>201.886292836486</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.3420095330355</v>
+        <v>276.2297324533969</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.4125265180176</v>
+        <v>249.8667544789901</v>
       </c>
       <c r="AD2" t="n">
-        <v>144960.981074398</v>
+        <v>201886.292836486</v>
       </c>
       <c r="AE2" t="n">
-        <v>198342.0095330355</v>
+        <v>276229.732453397</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.525117118214676e-06</v>
+        <v>4.209219792005532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.71614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>179412.5265180176</v>
+        <v>249866.7544789902</v>
       </c>
     </row>
   </sheetData>
@@ -11768,28 +11768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0301813688722</v>
+        <v>165.6000863691952</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.4941012729228</v>
+        <v>226.5813439304263</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.0813309058742</v>
+        <v>204.9567384746852</v>
       </c>
       <c r="AD2" t="n">
-        <v>118030.1813688722</v>
+        <v>165600.0863691952</v>
       </c>
       <c r="AE2" t="n">
-        <v>161494.1012729228</v>
+        <v>226581.3439304263</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.113250844049188e-06</v>
+        <v>4.738077074639574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>146081.3309058742</v>
+        <v>204956.7384746851</v>
       </c>
     </row>
   </sheetData>
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.997676820104</v>
+        <v>172.9096628837188</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.6590918166128</v>
+        <v>236.5826289933491</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.4670662117133</v>
+        <v>214.0035149280976</v>
       </c>
       <c r="AD2" t="n">
-        <v>123997.676820104</v>
+        <v>172909.6628837188</v>
       </c>
       <c r="AE2" t="n">
-        <v>169659.0918166128</v>
+        <v>236582.6289933491</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.984161396648402e-06</v>
+        <v>4.455086461742094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.9765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>153467.0662117133</v>
+        <v>214003.5149280976</v>
       </c>
     </row>
     <row r="3">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.1945131707056</v>
+        <v>172.1064992343204</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.5601678784271</v>
+        <v>235.4837050551634</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.4730220318382</v>
+        <v>213.0094707482225</v>
       </c>
       <c r="AD3" t="n">
-        <v>123194.5131707056</v>
+        <v>172106.4992343205</v>
       </c>
       <c r="AE3" t="n">
-        <v>168560.167878427</v>
+        <v>235483.7050551634</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.02159296557153e-06</v>
+        <v>4.510968451281429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>152473.0220318382</v>
+        <v>213009.4707482225</v>
       </c>
     </row>
   </sheetData>
